--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2658.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2658.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8871666941534861</v>
+        <v>1.794230699539185</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.932799935340881</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.889144420623779</v>
       </c>
       <c r="D1">
-        <v>1.307480321227938</v>
+        <v>2.258776426315308</v>
       </c>
       <c r="E1">
-        <v>0.8351751229125502</v>
+        <v>3.180292129516602</v>
       </c>
     </row>
   </sheetData>
